--- a/data/trans_camb/P32A-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Habitat-trans_camb.xlsx
@@ -675,16 +675,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.253303193191762</v>
+        <v>-1.12935346681511</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.187352393551694</v>
+        <v>-1.319318087015697</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.36210797307642</v>
+        <v>-1.351566131979761</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6764934884684927</v>
+        <v>0.6625015723587816</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -693,13 +693,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.3756371715298631</v>
+        <v>-0.2871259623471705</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.6277857644161674</v>
+        <v>-0.4211092397850741</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.7588666151174438</v>
+        <v>-0.7135092249319487</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.927653344646164</v>
+        <v>1.993135348519441</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.266200421700752</v>
+        <v>2.072313199134161</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.800332846884228</v>
+        <v>1.922009381029614</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.118427436466507</v>
+        <v>5.488046130981626</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.335736779293133</v>
+        <v>4.432837619318255</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.669667754640713</v>
+        <v>2.819074785517427</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.149982162932984</v>
+        <v>2.278622218779737</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.963707287089991</v>
+        <v>1.941172546833938</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.571519160837003</v>
+        <v>1.491780450748912</v>
       </c>
     </row>
     <row r="7">
@@ -786,25 +786,25 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7228986641978546</v>
+        <v>-0.7077490854321854</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7114439937683544</v>
+        <v>-0.7741847351083699</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7488196665100991</v>
+        <v>-0.7374214860180982</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.4723442472152548</v>
+        <v>-0.4115917858392913</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5570694562330905</v>
+        <v>-0.5615422560335905</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6638168009945434</v>
+        <v>-0.6716467192244319</v>
       </c>
     </row>
     <row r="9">
@@ -815,25 +815,25 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>4.633973852380521</v>
+        <v>5.949607247066444</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>6.159919601414281</v>
+        <v>5.868533671550337</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.747897466225468</v>
+        <v>5.224809851076675</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>8.569255958651649</v>
+        <v>8.328548007736106</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>7.371423795298657</v>
+        <v>7.775102803716809</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>6.359954137073291</v>
+        <v>4.920502474993882</v>
       </c>
     </row>
     <row r="10">
@@ -883,31 +883,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.1596976489675839</v>
+        <v>-0.2443511565014776</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6629256653109581</v>
+        <v>0.6057978299060857</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4051302638842108</v>
+        <v>-0.4742115311273462</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2900112711914613</v>
+        <v>0.2917142269132325</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.351157843082795</v>
+        <v>1.150431782388638</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.01254424748776226</v>
+        <v>-0.02069927469100099</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5373938928202147</v>
+        <v>0.6270162147045226</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3778584313466861</v>
+        <v>0.3626984863774305</v>
       </c>
     </row>
     <row r="12">
@@ -918,31 +918,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.052077537620567</v>
+        <v>3.037521323274591</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.942352848035804</v>
+        <v>3.831878028126713</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.062457662222378</v>
+        <v>2.255978646199357</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.7359374725311</v>
+        <v>2.248365513237523</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.546558292801706</v>
+        <v>2.597386438497773</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.691644322115296</v>
+        <v>5.878643316298372</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.15488379414724</v>
+        <v>2.267828476094181</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.770896169870588</v>
+        <v>2.988218455294468</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.490121182602917</v>
+        <v>2.540461805697845</v>
       </c>
     </row>
     <row r="13">
@@ -994,25 +994,25 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2142813761596581</v>
+        <v>-0.43111387231202</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2623391902587212</v>
+        <v>0.1989150948063552</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4751885996729475</v>
+        <v>-0.450023939932295</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.274386975395911</v>
+        <v>-0.2891318564098126</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3029858618846898</v>
+        <v>0.3321673325220748</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2833952635532381</v>
+        <v>0.1592318096878954</v>
       </c>
     </row>
     <row r="15">
@@ -1023,25 +1023,25 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10.44384227785549</v>
+        <v>7.722569335963398</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10.71728605040326</v>
+        <v>9.960113842637126</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7.246865833368546</v>
+        <v>6.10734647810751</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>8.647761119911499</v>
+        <v>8.766517971158516</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>11.77214853104651</v>
+        <v>14.21792056920624</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>10.79273440370762</v>
+        <v>9.701730995810488</v>
       </c>
     </row>
     <row r="16">
@@ -1062,7 +1062,7 @@
         <v>-0.3071642734457172</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.5765697113953046</v>
+        <v>-0.5765697113953049</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.708627867077825</v>
@@ -1080,7 +1080,7 @@
         <v>-0.4111906360952487</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.3996825300043034</v>
+        <v>0.3996825300043031</v>
       </c>
     </row>
     <row r="17">
@@ -1091,31 +1091,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.153876040366324</v>
+        <v>-1.315882118335434</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.418248301236537</v>
+        <v>-2.801119854351171</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.807300354072724</v>
+        <v>-2.702599480777181</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.940999322429961</v>
+        <v>-3.933979332081539</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.894791486315436</v>
+        <v>-2.862640041657236</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.3149588393857464</v>
+        <v>-0.3044094547373017</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.215245766006764</v>
+        <v>-1.181878798067402</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.992241330525643</v>
+        <v>-1.995234946286975</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.367129280765589</v>
+        <v>-1.377010839687568</v>
       </c>
     </row>
     <row r="18">
@@ -1126,31 +1126,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.828943428176454</v>
+        <v>4.016759344353797</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.863179204895308</v>
+        <v>1.567716117482546</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.354483298106671</v>
+        <v>1.451374634076036</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8399695355148477</v>
+        <v>0.8364112329365552</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.749250789742354</v>
+        <v>6.596436419768792</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.320746157747887</v>
+        <v>2.439861777122592</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.04576576925128</v>
+        <v>1.079501931909189</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.34712811828293</v>
+        <v>2.230430479894662</v>
       </c>
     </row>
     <row r="19">
@@ -1167,7 +1167,7 @@
         <v>-0.1335636298791192</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2507086604455716</v>
+        <v>-0.2507086604455718</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-1</v>
@@ -1185,7 +1185,7 @@
         <v>-0.2222363668689926</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.2160165761863027</v>
+        <v>0.2160165761863025</v>
       </c>
     </row>
     <row r="20">
@@ -1196,25 +1196,25 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3940295389322367</v>
+        <v>-0.4669076943895246</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7204516482171938</v>
+        <v>-0.7377466587457041</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.821970399218367</v>
+        <v>-0.7947331979925988</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.4607973390714533</v>
+        <v>-0.4828064086237575</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.749628962259931</v>
+        <v>-0.7197338700046092</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5908030135890434</v>
+        <v>-0.5531650324810272</v>
       </c>
     </row>
     <row r="21">
@@ -1225,25 +1225,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.225288801932101</v>
+        <v>3.108748081917182</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.583106229397077</v>
+        <v>1.330944734364239</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.243057624588871</v>
+        <v>1.314190531658004</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>2.453400590854844</v>
+        <v>2.369631948442329</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.196574757852876</v>
+        <v>1.156745892190218</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.407335625102316</v>
+        <v>2.086814723448976</v>
       </c>
     </row>
     <row r="22">
@@ -1293,31 +1293,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.146135799369726</v>
+        <v>1.314281642701123</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.1059009651424813</v>
+        <v>-0.06247707741657999</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7169367242134762</v>
+        <v>0.69770815224529</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.010936835180104</v>
+        <v>-0.9981099472920635</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.07155898518439584</v>
+        <v>-0.1214818226664669</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.4077121081988966</v>
+        <v>-0.3777322566150546</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7348518970332429</v>
+        <v>0.7349178404218525</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2891837848669642</v>
+        <v>0.3206867491875552</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6271842803455268</v>
+        <v>0.5254472030979235</v>
       </c>
     </row>
     <row r="24">
@@ -1328,31 +1328,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.12980631059263</v>
+        <v>4.231716357352931</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.164470447420291</v>
+        <v>2.249052592243045</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.533817547950346</v>
+        <v>3.592601930193166</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.067624868804543</v>
+        <v>2.321423522593227</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.536739772369392</v>
+        <v>3.652726025366979</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.587834074284546</v>
+        <v>3.902007075509253</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.99032802829751</v>
+        <v>2.984233263529605</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.167179485873445</v>
+        <v>2.297533687764676</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.89371013490426</v>
+        <v>2.90401468642448</v>
       </c>
     </row>
     <row r="25">
@@ -1398,29 +1398,27 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.7873438072703695</v>
+        <v>0.8646802315429755</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4695365225685821</v>
+        <v>-0.4249742573360781</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2915202849721803</v>
+        <v>0.2918892200636043</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>-0.4892960199499984</v>
-      </c>
-      <c r="H26" s="6" t="n">
-        <v>-0.8024271810642811</v>
-      </c>
+        <v>-0.4882931484815862</v>
+      </c>
+      <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>0.5544102264739436</v>
+        <v>0.4606174396923337</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1473907288809526</v>
+        <v>0.05281129310000596</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3251053517598774</v>
+        <v>0.3662873934948552</v>
       </c>
     </row>
     <row r="27">
@@ -1431,25 +1429,21 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>24.91669475609967</v>
-      </c>
-      <c r="D27" s="6" t="n">
-        <v>14.88457491654729</v>
-      </c>
-      <c r="E27" s="6" t="n">
-        <v>18.38037146193442</v>
-      </c>
+        <v>28.48673089808038</v>
+      </c>
+      <c r="D27" s="6" t="inlineStr"/>
+      <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>11.67702895112645</v>
+        <v>12.51759877073195</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>10.16798046178841</v>
+        <v>9.963524002239746</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>11.6285700677866</v>
+        <v>11.74563176861703</v>
       </c>
     </row>
     <row r="28">
@@ -1499,31 +1493,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4969847840848588</v>
+        <v>0.6184634582791128</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1818625859122961</v>
+        <v>0.1619709325519185</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.03517029387135181</v>
+        <v>0.01624438788596668</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.1268904291654863</v>
+        <v>-0.08939885647097585</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.312515171117039</v>
+        <v>0.2425565688743528</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.8303070640328288</v>
+        <v>0.8719679973120484</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.52838334863725</v>
+        <v>0.5190200502882534</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3181557908466064</v>
+        <v>0.3316392542851195</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.5384612315711145</v>
+        <v>0.4999287764351781</v>
       </c>
     </row>
     <row r="30">
@@ -1534,31 +1528,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.307720337749625</v>
+        <v>2.35642338735492</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.728094516179165</v>
+        <v>1.805755679606402</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.562012265994049</v>
+        <v>1.492296971000398</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.365949403506894</v>
+        <v>1.301447816007209</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.93912322448331</v>
+        <v>1.819184489940714</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.092794066363009</v>
+        <v>3.09545748801008</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.792365933281712</v>
+        <v>1.826860705615061</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.522644548747485</v>
+        <v>1.525526137611495</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.760678142407688</v>
+        <v>1.831238353393478</v>
       </c>
     </row>
     <row r="31">
@@ -1593,7 +1587,7 @@
         <v>1.122980325728489</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1.332165010155839</v>
+        <v>1.33216501015584</v>
       </c>
     </row>
     <row r="32">
@@ -1604,31 +1598,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2997451355020171</v>
+        <v>0.3686067876086965</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1097467138811251</v>
+        <v>0.05785380498519528</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.02778485708263647</v>
+        <v>-0.01191325768820395</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4858974622956539</v>
+        <v>-0.473545214820834</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2242765008084023</v>
+        <v>-0.1574036507996301</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.86384595101851</v>
+        <v>0.8148553214317126</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4832719035198332</v>
+        <v>0.4206763885905915</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2386375395015349</v>
+        <v>0.236791408777998</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.4274991669444149</v>
+        <v>0.4115223351598303</v>
       </c>
     </row>
     <row r="33">
@@ -1639,29 +1633,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.924954832389211</v>
+        <v>3.201627922187524</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.363952291966478</v>
+        <v>2.316777117385786</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.062035994183346</v>
-      </c>
-      <c r="F33" s="6" t="inlineStr"/>
+        <v>1.975584385676098</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>11.04217007475562</v>
+      </c>
       <c r="G33" s="6" t="n">
-        <v>16.69363738029224</v>
+        <v>14.11767551815468</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>23.97316981436511</v>
+        <v>25.51215864053085</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>3.163358538672834</v>
+        <v>3.002615024258994</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>2.633391339893124</v>
+        <v>2.486522078841271</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.86362361582983</v>
+        <v>2.916067352069692</v>
       </c>
     </row>
     <row r="34">
